--- a/medicine/Sexualité et sexologie/Cunnilingus/Cunnilingus.xlsx
+++ b/medicine/Sexualité et sexologie/Cunnilingus/Cunnilingus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cunnilingus (ou cunnilinctus) est une pratique sexuelle orale qui consiste à stimuler les différentes parties de la vulve à l'aide de la langue, des lèvres ou du nez. Il est utilisé soit comme préliminaire, soit comme acte sexuel à part entière. Dans les deux cas il peut mener jusqu'à l'orgasme.
 </t>
@@ -511,11 +523,13 @@
           <t>Étymologie et terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme provient du latin cunnilinctus (de cunnus « vulve » et lingere « lécher »). Alors que le mot cunnilingus désigne en latin la personne qui se livre à l'opération, dans les langues modernes il désigne l'opération elle-même.
-Cette pratique est aussi désignée familièrement par les locutions suivantes : tarte au poil, faire minette, léchouille, broute-minou, brouter la pelouse, brouter le gazon[note 1], bouffer ou brouter la chatte ou la motte, brouter une moule, pratiquer une tyrolienne, descendre au barbu, descendre à la cave, gamahucher ou encore gougnotter[1].
-Manger et se faire manger sont des expressions souvent utilisées au Québec et au Nouveau-Brunswick[2]. Les Haïtiens utilisent le terme ti-bœuf.
+Cette pratique est aussi désignée familièrement par les locutions suivantes : tarte au poil, faire minette, léchouille, broute-minou, brouter la pelouse, brouter le gazon[note 1], bouffer ou brouter la chatte ou la motte, brouter une moule, pratiquer une tyrolienne, descendre au barbu, descendre à la cave, gamahucher ou encore gougnotter.
+Manger et se faire manger sont des expressions souvent utilisées au Québec et au Nouveau-Brunswick. Les Haïtiens utilisent le terme ti-bœuf.
 </t>
         </is>
       </c>
@@ -544,13 +558,50 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cunnilingus est une caresse bucco-génitale pouvant offrir à qui la reçoit une large gamme de sensations et pouvant mener jusqu'à l'orgasme, la sensibilité du clitoris, notamment, étant très importante[3]. L’utilisation de la salive ou de lubrifiant est courante et permet une stimulation douce et fluide[4].
-« La femme a avantage à guider son partenaire pour ce qui est des mouvements, des pressions et du rythme qu'elle préfère[5]. »
-Selon une étude réalisée[Où ?] en 2006 (enquête CSF[Quoi ?]), 85 % des hommes et des femmes ont déjà expérimenté le cunnilingus[6].
-Pratiques et variantes
-Le cunnilingus se pratique dans différentes positions sexuelles ; que ce soit debout, couché, assis, de dos, de face, de côtés, ou encore en position 69[7]. L'autocunnilingus [8] requiert un degré élevé de flexibilité que seuls les contorsionnistes peuvent atteindre [9],[10],[11],[12]. L'autocunnilingus n'a pas été documenté de façon fiable en recherche[13]. Cependant, cette pratique a été rapportée comme étant un fantasme auto-destructif[14].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cunnilingus est une caresse bucco-génitale pouvant offrir à qui la reçoit une large gamme de sensations et pouvant mener jusqu'à l'orgasme, la sensibilité du clitoris, notamment, étant très importante. L’utilisation de la salive ou de lubrifiant est courante et permet une stimulation douce et fluide.
+« La femme a avantage à guider son partenaire pour ce qui est des mouvements, des pressions et du rythme qu'elle préfère. »
+Selon une étude réalisée[Où ?] en 2006 (enquête CSF[Quoi ?]), 85 % des hommes et des femmes ont déjà expérimenté le cunnilingus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cunnilingus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cunnilingus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pratiques et variantes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cunnilingus se pratique dans différentes positions sexuelles ; que ce soit debout, couché, assis, de dos, de face, de côtés, ou encore en position 69. L'autocunnilingus  requiert un degré élevé de flexibilité que seuls les contorsionnistes peuvent atteindre . L'autocunnilingus n'a pas été documenté de façon fiable en recherche. Cependant, cette pratique a été rapportée comme étant un fantasme auto-destructif.
 	Variantes du cunnilingus
 			Facesitting, illustration de Mihály Zichy.
 			Facesitting, illustration de Mihály Zichy.
@@ -563,38 +614,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cunnilingus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cunnilingus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Risques</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que la fellation soit une pratique sexuelle plus à risque que le cunnilingus, celui-ci n'est pas sans danger, principalement pour la personne qui l'administre[15]. Cette pratique peut transmettre la plupart des maladies sexuellement transmissibles, comme l'herpès ou la verrue génitale. Le risque de transmission du sida est en revanche très faible[16],[17], pouvant survenir, par exemple, en cas de saignements chez les deux partenaires. Il est possible contre les risques de MST d'utiliser un carré de latex, comme la digue dentaire ou une protection fabriquée à partir d'un préservatif masculin[18],[19],[20]. Il est aussi possible de trouver des produits spécialement destinés au cunnilingus. Il est recommandé d’appliquer un lubrifiant à base d’eau sur la vulve avant d’y poser le carré en latex.
-Cette pratique semble également favoriser le cancer buccopharyngé à cause de la transmission des HPV et particulièrement du HPV-16[21].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -616,25 +635,99 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Risques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que la fellation soit une pratique sexuelle plus à risque que le cunnilingus, celui-ci n'est pas sans danger, principalement pour la personne qui l'administre. Cette pratique peut transmettre la plupart des maladies sexuellement transmissibles, comme l'herpès ou la verrue génitale. Le risque de transmission du sida est en revanche très faible pouvant survenir, par exemple, en cas de saignements chez les deux partenaires. Il est possible contre les risques de MST d'utiliser un carré de latex, comme la digue dentaire ou une protection fabriquée à partir d'un préservatif masculin. Il est aussi possible de trouver des produits spécialement destinés au cunnilingus. Il est recommandé d’appliquer un lubrifiant à base d’eau sur la vulve avant d’y poser le carré en latex.
+Cette pratique semble également favoriser le cancer buccopharyngé à cause de la transmission des HPV et particulièrement du HPV-16.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cunnilingus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cunnilingus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Signification culturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis l’origine de la sexologie et jusqu’à la révolution sexuelle, le cunnilingus était considéré comme une perversion de l’instinct sexuel, « instinct » qui « normalement » ne devait produire que des activités sexuelles permettant la reproduction. En 1952, le cunnilingus — avec la masturbation et la fellation — faisait partie des comportements pathologiques dans la première édition du manuel diagnostique et statistique des troubles mentaux[5].
-En Occident, sous l'Empire romain, le cunnilingus était déprécié car il était considéré comme une soumission de l'homme envers la femme[22]. Preuve de cette condamnation morale, Suétone impute cette pratique aux empereurs Tibère et Néron dans l'inventaire des turpitudes sexuelles qu'il leur attribue[23],[24].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis l’origine de la sexologie et jusqu’à la révolution sexuelle, le cunnilingus était considéré comme une perversion de l’instinct sexuel, « instinct » qui « normalement » ne devait produire que des activités sexuelles permettant la reproduction. En 1952, le cunnilingus — avec la masturbation et la fellation — faisait partie des comportements pathologiques dans la première édition du manuel diagnostique et statistique des troubles mentaux.
+En Occident, sous l'Empire romain, le cunnilingus était déprécié car il était considéré comme une soumission de l'homme envers la femme. Preuve de cette condamnation morale, Suétone impute cette pratique aux empereurs Tibère et Néron dans l'inventaire des turpitudes sexuelles qu'il leur attribue,.
 Bien que tabou dans la société occidentale jusque récemment, le cunnilingus a une place importante dans le taoïsme chinois. Ainsi, celui-ci considère que les fluides corporels sont des fluides vitaux, que les perdre engendre un amoindrissement de la vitalité et que, a contrario, les ingérer permet de recouvrer de cette vitalité, du qi. Cette facette du taoïsme est parfois nommée cyprinologie. Il est compliqué de tracer toutefois l'origine du terme.
 « La Grande Médecine des Trois Sommets se trouve dans le corps féminin et se compose de trois sucs ou essences : l’un qui vient de la bouche de la femme, un autre de ses seins et le troisième, le plus puissant, de la Grotte du Tigre Blanc, qui se trouve au pied du Sommet du Champignon Pourpre (le mont de Vénus). »
-— Octavio Paz, Conjonctions et disjonctions[25]
+— Octavio Paz, Conjonctions et disjonctions
 Selon Philip Rawson, ces métaphores mi-poétiques mi-médicinales expliquent la popularité du cunnilingus chez les Chinois : 
-« La pratique était une excellente méthode pour boire le fluide féminin précieux[25]. »
+« La pratique était une excellente méthode pour boire le fluide féminin précieux. »
 Mais, idéalement, dans le taoïsme, l’homme n’est pas le seul à tirer profit de cette pratique, la femme bénéficiant également de l’échange de fluides. En mélangeant les liquides mâles et femelles, le taoïste vise à réconcilier les opposés et à renouer avec le temps mythique qui existait avant la séparation des sexes, c'est-à-dire la période primordiale du qi initial. Pour le sinologue Kristofer Schipper, les textes taoïstes sur l'« art de la chambre à coucher » décrivent une « sorte de vampirisme amélioré ». On prétend que l'impératrice Wu Zetian (VIIe siècle) imposait cette pratique aux visiteurs étrangers qui se présentaient à sa cour.
 L’historien des religions Mircea Eliade parle d'un désir semblable de dépasser la vieillesse et la mort, et accéder à un état de Nirvâna, dans la pratique hindoue du yoga tantrique.
 Dans les lettres de Napoléon Bonaparte à sa femme, Joséphine de Beauharnais, des passages font allusion au cunnilingus :
-« Un baiser plus bas, plus bas que le sein. […] Tu sais bien que je n'oublie pas les petites visites ; tu sais bien, la petite forêt noire. Je lui donne mille baisers et j'attends avec impatience le moment d'y être[26]. »
-Dans la culture
-Musique
-Plusieurs chansons font plus ou moins directement référence à cette pratique sexuelle :
+« Un baiser plus bas, plus bas que le sein. […] Tu sais bien que je n'oublie pas les petites visites ; tu sais bien, la petite forêt noire. Je lui donne mille baisers et j'attends avec impatience le moment d'y être. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cunnilingus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cunnilingus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Signification culturelle</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Plusieurs chansons font plus ou moins directement référence à cette pratique sexuelle :
 1963 : Les Nuits d'une demoiselle par Colette Renard
 1980 : L'amour est cerise par Jean Ferrat
 1986 : Toi mon toit par Elli Medeiros
@@ -654,9 +747,47 @@
 2016 : Smoke Weed Eat Pussy par Ängie (en)
 2017 : Three Futures (en) par Torres
 2020 : WAP par Cardi B , Megan Thee Stallion
-2021 : Slumber Party par Ashnikko , Princess Nokia
-Cinéma
-Dans les films
+2021 : Slumber Party par Ashnikko , Princess Nokia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cunnilingus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cunnilingus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Signification culturelle</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dans les films
 Les acteurs cités forment le couple de la scène sexuelle.
 1958 : Les Amants de Louis Malle (premier film suggérant un cunnilingus)
 Jeanne Moreau
@@ -728,9 +859,47 @@
 2003 : Ken Park de Larry Clark
 2011 : Q de Laurent Bouhnik
 2012 : Too much love will kill you de Christophe Karabache
-2013 : Zones humides (Feuchtgebiete) de David Wnendt
-Jeux
-Dans le code couleur du jeu des bracelets du sexe, le rose clair correspond au cunnilingus que le garçon doit pratiquer.
+2013 : Zones humides (Feuchtgebiete) de David Wnendt</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cunnilingus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cunnilingus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Signification culturelle</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Jeux</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le code couleur du jeu des bracelets du sexe, le rose clair correspond au cunnilingus que le garçon doit pratiquer.
 </t>
         </is>
       </c>
